--- a/10.xlsx
+++ b/10.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1035" windowWidth="14805" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -181,9 +184,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -242,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,15 +506,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -543,10 +546,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -575,7 +578,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
@@ -602,7 +605,7 @@
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
@@ -629,7 +632,7 @@
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
@@ -656,7 +659,7 @@
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1">
@@ -683,7 +686,7 @@
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
@@ -710,7 +713,7 @@
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
@@ -737,7 +740,7 @@
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1">
@@ -764,7 +767,7 @@
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1">
